--- a/Orbita/testDate/Createlead.xlsx
+++ b/Orbita/testDate/Createlead.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="19380" windowHeight="7110" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>NAME</t>
   </si>
@@ -40,6 +40,33 @@
   </si>
   <si>
     <t>Madras</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Ameex</t>
+  </si>
+  <si>
+    <t>tgs</t>
+  </si>
+  <si>
+    <t>tgss</t>
+  </si>
+  <si>
+    <t>NewCompanyName</t>
+  </si>
+  <si>
+    <t>Ameexusa1</t>
+  </si>
+  <si>
+    <t>Ameexusa2</t>
   </si>
 </sst>
 </file>
@@ -55,12 +82,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,8 +108,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,12 +418,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -392,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,12 +520,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>